--- a/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
+++ b/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Dropbox\Thanzi la Onse\04 - Methods Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3A6559-5FAE-4E34-902D-8FAA5070F0F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4650AB-1055-4C9C-8534-E45A160B1604}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3466,8 +3466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3637,7 +3637,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="32" t="s">
         <v>132</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="32" t="s">
         <v>104</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="32" t="s">
         <v>45</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
         <v>66</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="32" t="s">
         <v>67</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="s">
         <v>68</v>
       </c>
@@ -3685,15 +3685,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
         <v>142</v>
       </c>
       <c r="B23">
+        <v>0.2</v>
+      </c>
+      <c r="C23">
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="32" t="s">
         <v>143</v>
       </c>
@@ -3701,7 +3704,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="32" t="s">
         <v>144</v>
       </c>
@@ -3709,7 +3712,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="s">
         <v>145</v>
       </c>
@@ -3717,7 +3720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="32" t="s">
         <v>146</v>
       </c>
@@ -3725,7 +3728,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="32" t="s">
         <v>147</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="s">
         <v>106</v>
       </c>
@@ -3741,7 +3744,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="s">
         <v>91</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="32" t="s">
         <v>88</v>
       </c>
@@ -3757,7 +3760,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="s">
         <v>113</v>
       </c>

--- a/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
+++ b/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Dropbox\Thanzi la Onse\04 - Methods Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4650AB-1055-4C9C-8534-E45A160B1604}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAE299F-F29E-4D82-B6A1-B9F607A2484E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3466,8 +3466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
